--- a/movie-plex-use_case_xlsx.xlsx
+++ b/movie-plex-use_case_xlsx.xlsx
@@ -13,12 +13,13 @@
     <sheet name="Data Objects - Movieplex - Movi" sheetId="6" r:id="rId9"/>
     <sheet name="features - User Microservice" sheetId="7" r:id="rId10"/>
     <sheet name="features - Movie Microservice" sheetId="8" r:id="rId11"/>
+    <sheet name="features - Multiplex Microservi" sheetId="9" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -203,6 +204,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>User Access</t>
+  </si>
+  <si>
     <t>/api/login</t>
   </si>
   <si>
@@ -215,6 +219,9 @@
     <t>To login a registered user</t>
   </si>
   <si>
+    <t>Any</t>
+  </si>
+  <si>
     <t>/api/register</t>
   </si>
   <si>
@@ -239,6 +246,9 @@
     <t>To change profile Picture</t>
   </si>
   <si>
+    <t>User</t>
+  </si>
+  <si>
     <t>/api/user/modify-user</t>
   </si>
   <si>
@@ -260,6 +270,9 @@
     <t>To get a user detail</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>/api/user/get-all</t>
   </si>
   <si>
@@ -275,6 +288,18 @@
     <t>To get all user details</t>
   </si>
   <si>
+    <t>/api/user/find/{name}</t>
+  </si>
+  <si>
+    <t>getUserByName()</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>To get all matched user details</t>
+  </si>
+  <si>
     <t>UserDetailDto - fields</t>
   </si>
   <si>
@@ -288,6 +313,168 @@
   </si>
   <si>
     <t xml:space="preserve">Movie Microservice - method description </t>
+  </si>
+  <si>
+    <t>/api/movie/add</t>
+  </si>
+  <si>
+    <t>addMovie()</t>
+  </si>
+  <si>
+    <t>To add a movie in DB</t>
+  </si>
+  <si>
+    <t>/api/movie/modify/{movieId}</t>
+  </si>
+  <si>
+    <t>modifyMovie()</t>
+  </si>
+  <si>
+    <t>movieId</t>
+  </si>
+  <si>
+    <t>To modify a movie in DB</t>
+  </si>
+  <si>
+    <t>/api/movie/delete/{movieId}</t>
+  </si>
+  <si>
+    <t>deleteMovie()</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>To delete a movie</t>
+  </si>
+  <si>
+    <t>/api/movie/{movieId}</t>
+  </si>
+  <si>
+    <t>getMovieById()</t>
+  </si>
+  <si>
+    <t>To find a movie by Id</t>
+  </si>
+  <si>
+    <t>/api/movie/get-all</t>
+  </si>
+  <si>
+    <t>getAllMovie()</t>
+  </si>
+  <si>
+    <t>List&lt;MovieDetailDto&gt;</t>
+  </si>
+  <si>
+    <t>To get list of all movie</t>
+  </si>
+  <si>
+    <t>/api/movie/find/{name}</t>
+  </si>
+  <si>
+    <t>getMovieByName()</t>
+  </si>
+  <si>
+    <t>movieName</t>
+  </si>
+  <si>
+    <t>To find a movie by name</t>
+  </si>
+  <si>
+    <t>/api/movie/list-running-multiplexes/{movieId}</t>
+  </si>
+  <si>
+    <t>getAllRunningMultiplexes()</t>
+  </si>
+  <si>
+    <t>List&lt;MPlexDetailDto&gt;</t>
+  </si>
+  <si>
+    <t>To list all multiplexes who is showing the searched movie</t>
+  </si>
+  <si>
+    <t>Multiplex Microservice</t>
+  </si>
+  <si>
+    <t>features - Multiplex Microservi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplex Microservice - method description </t>
+  </si>
+  <si>
+    <t>/api/mplex/register</t>
+  </si>
+  <si>
+    <t>registerMPlex()</t>
+  </si>
+  <si>
+    <t>MPlexDetailDto</t>
+  </si>
+  <si>
+    <t>To register a Multiplex with its screen details</t>
+  </si>
+  <si>
+    <t>/api/mplex/modify/{mPlexId}</t>
+  </si>
+  <si>
+    <t>modifyMplex()</t>
+  </si>
+  <si>
+    <t>mPlexId</t>
+  </si>
+  <si>
+    <t>To modify a Multiplex with its screen details</t>
+  </si>
+  <si>
+    <t>/api/mplex/delete/{mPlexId}</t>
+  </si>
+  <si>
+    <t>deleteMplex()</t>
+  </si>
+  <si>
+    <t>To delete a multiplex</t>
+  </si>
+  <si>
+    <t>/api/mplex/add-movie/{mPlexId}</t>
+  </si>
+  <si>
+    <t>MPlexDetailDto + List&lt;MovieDetailDto&gt;</t>
+  </si>
+  <si>
+    <t>To add movie on screens</t>
+  </si>
+  <si>
+    <t>/api/mplex/find/mPlexName</t>
+  </si>
+  <si>
+    <t>getMPlexByName()</t>
+  </si>
+  <si>
+    <t>mPlexName</t>
+  </si>
+  <si>
+    <t>To find a multiplex by name</t>
+  </si>
+  <si>
+    <t>/api/mplex/find-all</t>
+  </si>
+  <si>
+    <t>getAllMPlex()</t>
+  </si>
+  <si>
+    <t>To get all multiplex listed</t>
+  </si>
+  <si>
+    <t>/api/mplex/find/location/{location}</t>
+  </si>
+  <si>
+    <t>getMPlexByLocation()</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>To find all multiplex by location</t>
   </si>
 </sst>
 </file>
@@ -545,7 +732,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -636,10 +823,13 @@
     <xf numFmtId="0" fontId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -728,7 +918,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>599440</xdr:colOff>
+      <xdr:colOff>599439</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
@@ -745,8 +935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1361439" y="589279"/>
-          <a:ext cx="2275960" cy="3202346"/>
+          <a:off x="1361439" y="589280"/>
+          <a:ext cx="2275960" cy="3202345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,7 +965,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>186924</xdr:colOff>
+      <xdr:colOff>186925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133059</xdr:rowOff>
     </xdr:from>
@@ -792,8 +982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1710924" y="958559"/>
-          <a:ext cx="1006248" cy="287602"/>
+          <a:off x="1710925" y="958559"/>
+          <a:ext cx="1006247" cy="287602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,7 +1382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5819921" y="2171695"/>
-          <a:ext cx="1578318" cy="287603"/>
+          <a:ext cx="1578319" cy="287603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1569,7 +1759,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>103653</xdr:colOff>
+      <xdr:colOff>103652</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>75608</xdr:rowOff>
     </xdr:to>
@@ -1581,7 +1771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8694034" y="3090007"/>
-          <a:ext cx="553620" cy="287602"/>
+          <a:ext cx="553619" cy="287602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2232,7 +2422,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>255867</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>96908</xdr:rowOff>
+      <xdr:rowOff>96907</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2242,7 +2432,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="7013618" y="2241050"/>
-          <a:ext cx="1624250" cy="992759"/>
+          <a:ext cx="1624250" cy="992758"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2857,7 +3047,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>294823</xdr:colOff>
+      <xdr:colOff>294824</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>8455</xdr:rowOff>
     </xdr:to>
@@ -2869,7 +3059,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7493975" y="7639118"/>
-          <a:ext cx="1182849" cy="954538"/>
+          <a:ext cx="1182850" cy="954538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3117,7 +3307,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>399010</xdr:colOff>
+      <xdr:colOff>399009</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>33922</xdr:rowOff>
     </xdr:from>
@@ -3134,8 +3324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2685010" y="7793622"/>
-          <a:ext cx="1122757" cy="287603"/>
+          <a:off x="2685009" y="7793622"/>
+          <a:ext cx="1122758" cy="287603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3542,7 +3732,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>501923</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7793</xdr:rowOff>
+      <xdr:rowOff>7792</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3552,7 +3742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="696732" y="9165023"/>
-          <a:ext cx="567192" cy="748771"/>
+          <a:ext cx="567192" cy="748770"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3667,7 +3857,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>473003</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7793</xdr:rowOff>
+      <xdr:rowOff>7792</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3677,7 +3867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2953812" y="9165023"/>
-          <a:ext cx="567192" cy="748771"/>
+          <a:ext cx="567192" cy="748770"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3792,7 +3982,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>610999</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7793</xdr:rowOff>
+      <xdr:rowOff>7792</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3802,7 +3992,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5377808" y="9165023"/>
-          <a:ext cx="567192" cy="748771"/>
+          <a:ext cx="567192" cy="748770"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3909,7 +4099,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>224482</xdr:colOff>
+      <xdr:colOff>224483</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>84523</xdr:rowOff>
     </xdr:from>
@@ -3917,7 +4107,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>29673</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7793</xdr:rowOff>
+      <xdr:rowOff>7792</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3926,8 +4116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7844482" y="9165023"/>
-          <a:ext cx="567192" cy="748771"/>
+          <a:off x="7844483" y="9165023"/>
+          <a:ext cx="567191" cy="748770"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4687,7 +4877,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>712685</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>89469</xdr:rowOff>
+      <xdr:rowOff>89470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -4702,8 +4892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3760685" y="5372669"/>
-          <a:ext cx="1353486" cy="287603"/>
+          <a:off x="3760685" y="5372670"/>
+          <a:ext cx="1353486" cy="287602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4775,13 +4965,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>296846</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>122396</xdr:rowOff>
+      <xdr:rowOff>122397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>42846</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>71596</xdr:rowOff>
+      <xdr:rowOff>71597</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4790,7 +4980,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1058846" y="6561296"/>
+          <a:off x="1058846" y="6561297"/>
           <a:ext cx="1270001" cy="1270001"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4867,13 +5057,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>311836</xdr:colOff>
+      <xdr:colOff>311835</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>131377</xdr:rowOff>
+      <xdr:rowOff>131376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>311836</xdr:colOff>
+      <xdr:colOff>311835</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>71596</xdr:rowOff>
     </xdr:to>
@@ -4884,8 +5074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5645836" y="6570277"/>
-          <a:ext cx="1" cy="1261020"/>
+          <a:off x="5645835" y="6570276"/>
+          <a:ext cx="1" cy="1261021"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4914,9 +5104,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>488710</xdr:colOff>
+      <xdr:colOff>488711</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>153708</xdr:rowOff>
+      <xdr:rowOff>153707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -4931,8 +5121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6584710" y="6592608"/>
-          <a:ext cx="1453867" cy="1101381"/>
+          <a:off x="6584711" y="6592607"/>
+          <a:ext cx="1453866" cy="1101382"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5243,13 +5433,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>46261</xdr:colOff>
+      <xdr:colOff>46262</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>7613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>46261</xdr:colOff>
+      <xdr:colOff>46262</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>101971</xdr:rowOff>
     </xdr:to>
@@ -5260,7 +5450,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6142261" y="3804913"/>
+          <a:off x="6142262" y="3804913"/>
           <a:ext cx="1" cy="1910459"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6587,10 +6777,19 @@
     <row r="18">
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>88</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s" s="5">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6605,6 +6804,7 @@
     <hyperlink ref="D15" location="'Data Objects - Movieplex - Movi'!R2C1" tooltip="" display="Data Objects - Movieplex - Movi"/>
     <hyperlink ref="D17" location="'features - User Microservice'!R2C1" tooltip="" display="features - User Microservice"/>
     <hyperlink ref="D18" location="'features - Movie Microservice'!R2C1" tooltip="" display="features - Movie Microservice"/>
+    <hyperlink ref="D19" location="'features - Multiplex Microservi'!R2C1" tooltip="" display="features - Multiplex Microservi"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -7025,7 +7225,7 @@
     <col min="2" max="2" width="34" style="19" customWidth="1"/>
     <col min="3" max="3" width="22.6719" style="19" customWidth="1"/>
     <col min="4" max="4" width="17" style="19" customWidth="1"/>
-    <col min="5" max="5" width="21.1719" style="19" customWidth="1"/>
+    <col min="5" max="5" width="25.3516" style="19" customWidth="1"/>
     <col min="6" max="9" width="16.3516" style="19" customWidth="1"/>
     <col min="10" max="256" width="16.3516" style="19" customWidth="1"/>
   </cols>
@@ -7072,80 +7272,88 @@
       <c r="E3" t="s" s="26">
         <v>60</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" t="s" s="26">
+        <v>61</v>
+      </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" ht="16.35" customHeight="1">
       <c r="A4" t="s" s="28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="13">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="16">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="16">
         <v>9</v>
       </c>
       <c r="E4" t="s" s="16">
-        <v>64</v>
-      </c>
-      <c r="F4" s="29"/>
+        <v>65</v>
+      </c>
+      <c r="F4" t="s" s="16">
+        <v>66</v>
+      </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
     <row r="5" ht="16.35" customHeight="1">
       <c r="A5" t="s" s="28">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="13">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="16">
         <v>9</v>
       </c>
       <c r="E5" t="s" s="16">
-        <v>68</v>
-      </c>
-      <c r="F5" s="29"/>
+        <v>70</v>
+      </c>
+      <c r="F5" t="s" s="16">
+        <v>66</v>
+      </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
     </row>
     <row r="6" ht="16.35" customHeight="1">
       <c r="A6" t="s" s="28">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s" s="16">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s" s="16">
         <v>9</v>
       </c>
       <c r="E6" t="s" s="16">
-        <v>72</v>
-      </c>
-      <c r="F6" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="F6" t="s" s="16">
+        <v>75</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
     </row>
     <row r="7" ht="16.35" customHeight="1">
       <c r="A7" t="s" s="28">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s" s="16">
         <v>9</v>
@@ -7154,62 +7362,80 @@
         <v>9</v>
       </c>
       <c r="E7" t="s" s="16">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s" s="16">
         <v>75</v>
       </c>
-      <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
     <row r="8" ht="16.35" customHeight="1">
       <c r="A8" t="s" s="28">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s" s="16">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s" s="16">
         <v>9</v>
       </c>
       <c r="E8" t="s" s="16">
-        <v>79</v>
-      </c>
-      <c r="F8" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="F8" t="s" s="16">
+        <v>83</v>
+      </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
     </row>
     <row r="9" ht="16.35" customHeight="1">
       <c r="A9" t="s" s="28">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s" s="16">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s" s="16">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s" s="16">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s" s="16">
         <v>83</v>
       </c>
-      <c r="E9" t="s" s="16">
-        <v>84</v>
-      </c>
-      <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
     </row>
     <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="A10" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="30">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s" s="16">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s" s="16">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s" s="16">
+        <v>83</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -7227,10 +7453,10 @@
     </row>
     <row r="12" ht="16.35" customHeight="1">
       <c r="A12" t="s" s="28">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -7257,7 +7483,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I12"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
@@ -7265,10 +7491,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.0391" style="32" customWidth="1"/>
+    <col min="1" max="1" width="38.3516" style="32" customWidth="1"/>
     <col min="2" max="2" width="34" style="32" customWidth="1"/>
     <col min="3" max="3" width="22.6719" style="32" customWidth="1"/>
-    <col min="4" max="4" width="17" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.3516" style="32" customWidth="1"/>
     <col min="5" max="5" width="21.1719" style="32" customWidth="1"/>
     <col min="6" max="9" width="16.3516" style="32" customWidth="1"/>
     <col min="10" max="256" width="16.3516" style="32" customWidth="1"/>
@@ -7276,7 +7502,7 @@
   <sheetData>
     <row r="1" ht="19" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7290,7 +7516,7 @@
     <row r="2" ht="16.55" customHeight="1">
       <c r="A2" s="20"/>
       <c r="B2" t="s" s="21">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -7316,84 +7542,170 @@
       <c r="E3" t="s" s="26">
         <v>60</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" t="s" s="26">
+        <v>61</v>
+      </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="A4" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s" s="16">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s" s="16">
+        <v>83</v>
+      </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
     <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="A5" t="s" s="28">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="16">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s" s="16">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s" s="16">
+        <v>83</v>
+      </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
     </row>
     <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="A6" t="s" s="28">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s" s="16">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s" s="16">
+        <v>83</v>
+      </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
     </row>
     <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="A7" t="s" s="28">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s" s="16">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s" s="16">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s" s="16">
+        <v>66</v>
+      </c>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
     <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="A8" t="s" s="28">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s" s="16">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s" s="16">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s" s="16">
+        <v>66</v>
+      </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
     </row>
     <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="A9" t="s" s="28">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s" s="16">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s" s="16">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s" s="16">
+        <v>66</v>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
     </row>
     <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="A10" t="s" s="28">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s" s="16">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s" s="16">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s" s="16">
+        <v>66</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -7409,16 +7721,258 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" ht="16.35" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="37.0391" style="33" customWidth="1"/>
+    <col min="2" max="2" width="34" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.6719" style="33" customWidth="1"/>
+    <col min="4" max="4" width="33" style="33" customWidth="1"/>
+    <col min="5" max="5" width="36.8516" style="33" customWidth="1"/>
+    <col min="6" max="9" width="16.3516" style="33" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" ht="16.55" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" t="s" s="21">
+        <v>126</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" ht="16.55" customHeight="1">
+      <c r="A3" t="s" s="24">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s" s="25">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s" s="26">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s" s="26">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s" s="26">
+        <v>61</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1">
+      <c r="A4" t="s" s="28">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s" s="16">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s" s="16">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s" s="16">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" ht="16.35" customHeight="1">
+      <c r="A5" t="s" s="28">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s" s="16">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s" s="16">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s" s="16">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" t="s" s="28">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s" s="16">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s" s="16">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s" s="16">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s" s="16">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" t="s" s="28">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s" s="16">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s" s="16">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" ht="16.35" customHeight="1">
+      <c r="A9" t="s" s="28">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>146</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" t="s" s="16">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s" s="16">
+        <v>147</v>
+      </c>
+      <c r="F9" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" ht="16.35" customHeight="1">
+      <c r="A10" t="s" s="28">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s" s="16">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s" s="16">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" ht="16.35" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/movie-plex-use_case_xlsx.xlsx
+++ b/movie-plex-use_case_xlsx.xlsx
@@ -7,19 +7,22 @@
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="Use_Case_diagram" sheetId="2" r:id="rId5"/>
-    <sheet name="Data Objects - Movieplex - user" sheetId="3" r:id="rId6"/>
-    <sheet name="Data Objects - Movieplex - mult" sheetId="4" r:id="rId7"/>
-    <sheet name="Data Objects - Movieplex - _mov" sheetId="5" r:id="rId8"/>
-    <sheet name="Data Objects - Movieplex - Movi" sheetId="6" r:id="rId9"/>
-    <sheet name="features - User Microservice" sheetId="7" r:id="rId10"/>
-    <sheet name="features - Movie Microservice" sheetId="8" r:id="rId11"/>
-    <sheet name="features - Multiplex Microservi" sheetId="9" r:id="rId12"/>
+    <sheet name="Data Objects &amp; Communication - " sheetId="3" r:id="rId6"/>
+    <sheet name="Data Objects &amp; Communication -1" sheetId="4" r:id="rId7"/>
+    <sheet name="Data Objects &amp; Communication -2" sheetId="5" r:id="rId8"/>
+    <sheet name="Data Objects &amp; Communication -3" sheetId="6" r:id="rId9"/>
+    <sheet name="Data Objects &amp; Communication -4" sheetId="7" r:id="rId10"/>
+    <sheet name="Data Objects &amp; Communication -5" sheetId="8" r:id="rId11"/>
+    <sheet name="features - User Microservice" sheetId="9" r:id="rId12"/>
+    <sheet name="features - Movie Microservice" sheetId="10" r:id="rId13"/>
+    <sheet name="features - Multiplex Microservi" sheetId="11" r:id="rId14"/>
+    <sheet name="features - Screen Microservice-" sheetId="12" r:id="rId15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -39,13 +42,13 @@
     <t>"All Drawings from the Sheet"</t>
   </si>
   <si>
-    <t>Data Objects</t>
+    <t>Data Objects &amp; Communication</t>
   </si>
   <si>
     <t>Movieplex - user - MS</t>
   </si>
   <si>
-    <t>Data Objects - Movieplex - user</t>
+    <t xml:space="preserve">Data Objects &amp; Communication - </t>
   </si>
   <si>
     <t>UserDetailDto</t>
@@ -60,6 +63,9 @@
     <t>String lastName</t>
   </si>
   <si>
+    <t>Date dob</t>
+  </si>
+  <si>
     <t>int age</t>
   </si>
   <si>
@@ -78,67 +84,88 @@
     <t>String userType</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean isAlive </t>
+  </si>
+  <si>
+    <t>List&lt;MultiplexDetailDto&gt; associatedMultiplexes</t>
+  </si>
+  <si>
     <t>Date profileCreationTimeStamp</t>
   </si>
   <si>
     <t>Date profileLastModifiedTimeStamp</t>
   </si>
   <si>
-    <t>Movieplex - multiplex - MS</t>
-  </si>
-  <si>
-    <t>Data Objects - Movieplex - mult</t>
+    <t>Movieplex - multiplex -   MS</t>
+  </si>
+  <si>
+    <t>Data Objects &amp; Communication -1</t>
   </si>
   <si>
     <t>MultiplexDetailDto</t>
   </si>
   <si>
+    <t>String multiplexId</t>
+  </si>
+  <si>
+    <t>String name</t>
+  </si>
+  <si>
+    <t>List&lt;ScreenDetailDto&gt; screenList</t>
+  </si>
+  <si>
+    <t>int numberOfScreens</t>
+  </si>
+  <si>
+    <t>String associatedUserId</t>
+  </si>
+  <si>
+    <t>Movieplex - screen - MS</t>
+  </si>
+  <si>
+    <t>Data Objects &amp; Communication -2</t>
+  </si>
+  <si>
     <t>ScreenDetailDto</t>
   </si>
   <si>
-    <t>String multiplexId</t>
-  </si>
-  <si>
     <t>String screenId</t>
   </si>
   <si>
-    <t>String name</t>
-  </si>
-  <si>
-    <t>String multiplex</t>
-  </si>
-  <si>
-    <t>String screenSize</t>
-  </si>
-  <si>
-    <t>List&lt;screen&gt;</t>
-  </si>
-  <si>
-    <t>String totalSeats</t>
-  </si>
-  <si>
-    <t>int numberOfScreens</t>
-  </si>
-  <si>
-    <t>String others</t>
-  </si>
-  <si>
-    <t>Movieplex - [movie-screen-relationship] - MS MS-1</t>
-  </si>
-  <si>
-    <t>Data Objects - Movieplex - _mov</t>
-  </si>
-  <si>
-    <t>movieScreenRelationshipDetailDto</t>
+    <t>String screenName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float screenSize </t>
+  </si>
+  <si>
+    <t>Int totalSeat</t>
   </si>
   <si>
     <t>String movieId</t>
   </si>
   <si>
+    <t>MovieDetailDto movieDetail</t>
+  </si>
+  <si>
+    <t>Date showStartDate</t>
+  </si>
+  <si>
+    <t>Date showEndDate</t>
+  </si>
+  <si>
+    <t>Boolean isScreenAlive</t>
+  </si>
+  <si>
+    <t>Date showAllocationDate</t>
+  </si>
+  <si>
+    <t>Date showLastModified</t>
+  </si>
+  <si>
     <t>Movieplex - Movie - MS</t>
   </si>
   <si>
-    <t>Data Objects - Movieplex - Movi</t>
+    <t>Data Objects &amp; Communication -3</t>
   </si>
   <si>
     <t>MovieDetailDto</t>
@@ -165,18 +192,39 @@
     <t>String trailer</t>
   </si>
   <si>
+    <t>String posterURL</t>
+  </si>
+  <si>
     <t>Double imdbRating</t>
   </si>
   <si>
     <t>Double userRating</t>
   </si>
   <si>
+    <t>Date releaseDate</t>
+  </si>
+  <si>
+    <t>Boolean isAlive</t>
+  </si>
+  <si>
     <t>Date movieCreationTimeStamp</t>
   </si>
   <si>
     <t>Date movieLastModifiedTimeStamp</t>
   </si>
   <si>
+    <t>Movieplex - movie-search-map -   MS</t>
+  </si>
+  <si>
+    <t>Data Objects &amp; Communication -4</t>
+  </si>
+  <si>
+    <t>MovieSearchDetailDto</t>
+  </si>
+  <si>
+    <t>Data Objects &amp; Communication -5</t>
+  </si>
+  <si>
     <t>features</t>
   </si>
   <si>
@@ -207,7 +255,7 @@
     <t>User Access</t>
   </si>
   <si>
-    <t>/api/login</t>
+    <t>/api/user/login</t>
   </si>
   <si>
     <t>login()</t>
@@ -222,7 +270,7 @@
     <t>Any</t>
   </si>
   <si>
-    <t>/api/register</t>
+    <t>/api/user/register</t>
   </si>
   <si>
     <t>register()</t>
@@ -300,12 +348,6 @@
     <t>To get all matched user details</t>
   </si>
   <si>
-    <t>UserDetailDto - fields</t>
-  </si>
-  <si>
-    <t>userId, firstName, lastName, age, email. Mobile, password, location, userType, profileCreationTimeStamp, profileUpdateTimeStamp</t>
-  </si>
-  <si>
     <t>Movie Microservice</t>
   </si>
   <si>
@@ -330,18 +372,18 @@
     <t>modifyMovie()</t>
   </si>
   <si>
+    <t>To modify a movie in DB</t>
+  </si>
+  <si>
+    <t>/api/movie/delete/{movieId}</t>
+  </si>
+  <si>
+    <t>deleteMovie()</t>
+  </si>
+  <si>
     <t>movieId</t>
   </si>
   <si>
-    <t>To modify a movie in DB</t>
-  </si>
-  <si>
-    <t>/api/movie/delete/{movieId}</t>
-  </si>
-  <si>
-    <t>deleteMovie()</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -435,15 +477,6 @@
     <t>To delete a multiplex</t>
   </si>
   <si>
-    <t>/api/mplex/add-movie/{mPlexId}</t>
-  </si>
-  <si>
-    <t>MPlexDetailDto + List&lt;MovieDetailDto&gt;</t>
-  </si>
-  <si>
-    <t>To add movie on screens</t>
-  </si>
-  <si>
     <t>/api/mplex/find/mPlexName</t>
   </si>
   <si>
@@ -475,6 +508,60 @@
   </si>
   <si>
     <t>To find all multiplex by location</t>
+  </si>
+  <si>
+    <t>/api/mplex/find/screen-list{mPlexId}</t>
+  </si>
+  <si>
+    <t>getAllScreen(mPlexId)</t>
+  </si>
+  <si>
+    <t>List&lt;ScreenDetailDto&gt;</t>
+  </si>
+  <si>
+    <t>To get all listed screens of this multiplex</t>
+  </si>
+  <si>
+    <t>Screen Microservice-1</t>
+  </si>
+  <si>
+    <t>features - Screen Microservice-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen Microservice - method description </t>
+  </si>
+  <si>
+    <t>/api/screen/register/</t>
+  </si>
+  <si>
+    <t>registerScreen()</t>
+  </si>
+  <si>
+    <t>/api/screen/modify/{screenId, mPlexId}</t>
+  </si>
+  <si>
+    <t>modifyScreen()</t>
+  </si>
+  <si>
+    <t>/api/screen/delete/{screenId, mPlexId}</t>
+  </si>
+  <si>
+    <t>deleteScreen()</t>
+  </si>
+  <si>
+    <t>screenId</t>
+  </si>
+  <si>
+    <t>/api/screen/add-movie/{screenId, MovieDetailDto}</t>
+  </si>
+  <si>
+    <t>/api/screen/find-all/{mPleaxId}</t>
+  </si>
+  <si>
+    <t>getAllScreenByMPlexId()</t>
+  </si>
+  <si>
+    <t>Mplex-microservice</t>
   </si>
 </sst>
 </file>
@@ -484,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -523,6 +610,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -536,6 +630,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
@@ -663,36 +762,6 @@
       <left style="thin">
         <color indexed="14"/>
       </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="14"/>
@@ -726,13 +795,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -751,88 +850,91 @@
     <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -860,6 +962,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff00a1fe"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1229,15 +1332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>137100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:colOff>82725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>127059</xdr:colOff>
+      <xdr:colOff>72684</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>159424</xdr:rowOff>
+      <xdr:rowOff>55489</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1246,7 +1349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5471100" y="589280"/>
+          <a:off x="5416725" y="485345"/>
           <a:ext cx="2275960" cy="3202345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2684,14 +2787,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>359983</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563183</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>44518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18831</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222031</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>8455</xdr:rowOff>
     </xdr:to>
@@ -2702,7 +2805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2645983" y="7639118"/>
+          <a:off x="2087183" y="7639118"/>
           <a:ext cx="1182849" cy="954538"/>
         </a:xfrm>
         <a:custGeom>
@@ -2862,14 +2965,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>497979</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>688479</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>44518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156827</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347327</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>8455</xdr:rowOff>
     </xdr:to>
@@ -2880,7 +2983,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069979" y="7639118"/>
+          <a:off x="3736479" y="7639118"/>
           <a:ext cx="1182849" cy="954538"/>
         </a:xfrm>
         <a:custGeom>
@@ -3306,14 +3409,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>399009</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602209</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>33922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>759766</xdr:colOff>
+      <xdr:colOff>200966</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>156424</xdr:rowOff>
     </xdr:to>
@@ -3324,7 +3427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2685009" y="7793622"/>
+          <a:off x="2126209" y="7793622"/>
           <a:ext cx="1122758" cy="287603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3394,14 +3497,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>651000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>79500</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>33922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>716710</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145210</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>156424</xdr:rowOff>
     </xdr:to>
@@ -3412,7 +3515,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5223000" y="7793622"/>
+          <a:off x="3889500" y="7793622"/>
           <a:ext cx="827711" cy="287603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3483,15 +3586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>666021</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12332</xdr:rowOff>
+      <xdr:colOff>645166</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>350134</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>214</xdr:rowOff>
+      <xdr:colOff>329278</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85253</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3500,8 +3603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7524021" y="7606932"/>
-          <a:ext cx="1208114" cy="813383"/>
+          <a:off x="7503166" y="7526871"/>
+          <a:ext cx="1208113" cy="813382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3550,19 +3653,6 @@
               <a:sym typeface="Helvetica Neue"/>
             </a:defRPr>
           </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>Micro-search </a:t>
-          </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -3849,13 +3939,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>667812</xdr:colOff>
+      <xdr:colOff>109012</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>84523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>473003</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676203</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>7792</xdr:rowOff>
     </xdr:to>
@@ -3866,7 +3956,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2953812" y="9165023"/>
+          <a:off x="2395012" y="9165023"/>
           <a:ext cx="567192" cy="748770"/>
         </a:xfrm>
         <a:custGeom>
@@ -3973,14 +4063,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>43808</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234308</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>84523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>610999</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39499</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>7792</xdr:rowOff>
     </xdr:to>
@@ -3991,7 +4081,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5377808" y="9165023"/>
+          <a:off x="4044308" y="9165023"/>
           <a:ext cx="567192" cy="748770"/>
         </a:xfrm>
         <a:custGeom>
@@ -4363,13 +4453,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>661737</xdr:colOff>
+      <xdr:colOff>102937</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>112747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>492053</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695253</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>80308</xdr:rowOff>
     </xdr:to>
@@ -4380,7 +4470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2947737" y="9358347"/>
+          <a:off x="2388937" y="9358347"/>
           <a:ext cx="592317" cy="462862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4501,14 +4591,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>37733</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228233</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>112747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>630049</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58549</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>80308</xdr:rowOff>
     </xdr:to>
@@ -4519,7 +4609,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5371733" y="9358347"/>
+          <a:off x="4038233" y="9358347"/>
           <a:ext cx="592317" cy="462862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4770,7 +4860,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>DB-4</a:t>
+            <a:t>DB-5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5009,14 +5099,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198388</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>401588</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>153728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198388</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>401588</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>161712</xdr:rowOff>
     </xdr:to>
@@ -5027,7 +5117,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3246388" y="6592628"/>
+          <a:off x="2687588" y="6592628"/>
           <a:ext cx="1" cy="1163685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5056,14 +5146,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311835</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502335</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>131376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311835</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502335</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>71596</xdr:rowOff>
     </xdr:to>
@@ -5074,7 +5164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5645835" y="6570276"/>
+          <a:off x="4312335" y="6570276"/>
           <a:ext cx="1" cy="1261021"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5197,14 +5287,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>189407</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>392607</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>8455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>189407</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>392607</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>12464</xdr:rowOff>
     </xdr:to>
@@ -5215,7 +5305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3237407" y="8593655"/>
+          <a:off x="2678607" y="8593655"/>
           <a:ext cx="1" cy="664410"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5244,14 +5334,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327403</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517903</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>8455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327403</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517903</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>12464</xdr:rowOff>
     </xdr:to>
@@ -5262,7 +5352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5661403" y="8593655"/>
+          <a:off x="4327903" y="8593655"/>
           <a:ext cx="1" cy="664410"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5611,6 +5701,1799 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228155</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649003</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Shape 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562155" y="7634889"/>
+          <a:ext cx="1182849" cy="954538"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21595" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="464" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="210" y="0"/>
+                <a:pt x="0" y="261"/>
+                <a:pt x="0" y="575"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="17777"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="18091"/>
+                <a:pt x="210" y="18354"/>
+                <a:pt x="464" y="18354"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="9148" y="18354"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="9116" y="18513"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="8753" y="20763"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="7690" y="20763"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="7690" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10486" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="11107" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="13905" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="13905" y="20763"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12842" y="20763"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12479" y="18513"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12452" y="18354"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21131" y="18354"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21384" y="18354"/>
+                <a:pt x="21595" y="18091"/>
+                <a:pt x="21595" y="17777"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21595" y="575"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21600" y="261"/>
+                <a:pt x="21389" y="0"/>
+                <a:pt x="21136" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="464" y="0"/>
+              </a:lnTo>
+              <a:close/>
+              <a:moveTo>
+                <a:pt x="10800" y="542"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="10913" y="542"/>
+                <a:pt x="11006" y="650"/>
+                <a:pt x="11006" y="797"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11006" y="937"/>
+                <a:pt x="10913" y="1052"/>
+                <a:pt x="10800" y="1052"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10686" y="1052"/>
+                <a:pt x="10594" y="937"/>
+                <a:pt x="10594" y="797"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10594" y="656"/>
+                <a:pt x="10686" y="542"/>
+                <a:pt x="10800" y="542"/>
+              </a:cubicBezTo>
+              <a:close/>
+              <a:moveTo>
+                <a:pt x="1242" y="1734"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="20358" y="1734"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="20358" y="15233"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1242" y="15233"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1242" y="1734"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336003</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588073</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>156424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Shape 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5670003" y="7793622"/>
+          <a:ext cx="1014071" cy="287603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Micro-search </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535984</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>80294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>341174</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>3563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Shape 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5869984" y="9160794"/>
+          <a:ext cx="567191" cy="748770"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="19679" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="9839" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="7321" y="0"/>
+                <a:pt x="4803" y="241"/>
+                <a:pt x="2882" y="724"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-961" y="1689"/>
+                <a:pt x="-961" y="3255"/>
+                <a:pt x="2882" y="4221"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6724" y="5186"/>
+                <a:pt x="12954" y="5186"/>
+                <a:pt x="16796" y="4221"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20639" y="3255"/>
+                <a:pt x="20639" y="1689"/>
+                <a:pt x="16796" y="724"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="14875" y="241"/>
+                <a:pt x="12357" y="0"/>
+                <a:pt x="9839" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+              <a:moveTo>
+                <a:pt x="0" y="3593"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="18993"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="20356"/>
+                <a:pt x="4405" y="21600"/>
+                <a:pt x="9839" y="21600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15273" y="21600"/>
+                <a:pt x="19678" y="20356"/>
+                <a:pt x="19678" y="18993"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="19678" y="3593"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="18279" y="4621"/>
+                <a:pt x="14401" y="5357"/>
+                <a:pt x="9839" y="5357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5277" y="5357"/>
+                <a:pt x="1399" y="4621"/>
+                <a:pt x="0" y="3593"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546880</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>377196</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Shape 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880880" y="9397770"/>
+          <a:ext cx="592317" cy="462863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Mongo</a:t>
+          </a:r>
+          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>DB-4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42011</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42011</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Shape 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6138011" y="6566047"/>
+          <a:ext cx="1" cy="1261021"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57579</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57579</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>8234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Shape 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153579" y="8589426"/>
+          <a:ext cx="1" cy="664409"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>567709</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>82368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37357</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>139725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Shape 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2853709" y="10483668"/>
+          <a:ext cx="3279649" cy="387558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="1" baseline="0" cap="none" i="1" spc="0" strike="noStrike" sz="1600" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="none" i="1" spc="0" strike="noStrike" sz="1600" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>MoviePlex Architecture Diagram</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246566</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148983</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Shape 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4251375" y="1425221"/>
+          <a:ext cx="567192" cy="1530463"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="wd2" y="hd2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21547" h="21600" fill="norm" stroke="1" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="10777" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="9509" y="0"/>
+                <a:pt x="8239" y="180"/>
+                <a:pt x="7271" y="540"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5335" y="1259"/>
+                <a:pt x="5335" y="2425"/>
+                <a:pt x="7271" y="3144"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="9206" y="3863"/>
+                <a:pt x="12348" y="3863"/>
+                <a:pt x="14284" y="3144"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="16220" y="2425"/>
+                <a:pt x="16220" y="1259"/>
+                <a:pt x="14284" y="540"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13316" y="180"/>
+                <a:pt x="12046" y="0"/>
+                <a:pt x="10777" y="0"/>
+              </a:cubicBezTo>
+              <a:close/>
+              <a:moveTo>
+                <a:pt x="4845" y="4060"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2970" y="4060"/>
+                <a:pt x="1445" y="4331"/>
+                <a:pt x="907" y="4563"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-23" y="4963"/>
+                <a:pt x="-21" y="5438"/>
+                <a:pt x="8" y="5606"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="8" y="12393"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="8" y="12733"/>
+                <a:pt x="732" y="13004"/>
+                <a:pt x="1648" y="13004"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2563" y="13004"/>
+                <a:pt x="3292" y="12728"/>
+                <a:pt x="3292" y="12393"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="3292" y="6777"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4791" y="6777"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4791" y="12641"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4804" y="12641"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4804" y="20628"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4804" y="21163"/>
+                <a:pt x="5982" y="21600"/>
+                <a:pt x="7421" y="21600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8860" y="21600"/>
+                <a:pt x="10037" y="21163"/>
+                <a:pt x="10037" y="20628"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="10037" y="12641"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10777" y="12641"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="11504" y="12641"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="11504" y="20628"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="11504" y="21163"/>
+                <a:pt x="12682" y="21600"/>
+                <a:pt x="14121" y="21600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15559" y="21600"/>
+                <a:pt x="16737" y="21163"/>
+                <a:pt x="16737" y="20628"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="16737" y="12636"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="16750" y="12636"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="16750" y="6772"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="18249" y="6772"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="18249" y="12388"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="18249" y="12728"/>
+                <a:pt x="18973" y="12997"/>
+                <a:pt x="19889" y="12997"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20805" y="12997"/>
+                <a:pt x="21533" y="12723"/>
+                <a:pt x="21533" y="12388"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21533" y="5606"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="21577" y="5438"/>
+                <a:pt x="21564" y="4957"/>
+                <a:pt x="20634" y="4563"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20096" y="4336"/>
+                <a:pt x="18566" y="4060"/>
+                <a:pt x="16691" y="4060"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="10777" y="4060"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4845" y="4060"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246514</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542170</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Shape 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4056514" y="3027485"/>
+          <a:ext cx="1057657" cy="287602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>SUPER_USER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638803</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>418750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Shape 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972803" y="1620780"/>
+          <a:ext cx="1303948" cy="287602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>User Management</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239302</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>630802</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Shape 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4811302" y="1162942"/>
+          <a:ext cx="1153501" cy="892790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>256390</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>674143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Shape 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4828390" y="1808919"/>
+          <a:ext cx="1179754" cy="295285"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266353</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565931</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Shape 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838353" y="2180409"/>
+          <a:ext cx="1061579" cy="197534"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266353</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Shape 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838353" y="2246252"/>
+          <a:ext cx="980498" cy="980498"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>741904</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>383419</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Shape 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3789904" y="-272576"/>
+          <a:ext cx="2689516" cy="344796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Data Objects &amp; Communication</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312792</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295147</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Shape 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3360792" y="3926496"/>
+          <a:ext cx="1506356" cy="193807"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumOff val="-13575"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Shape 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3919525" y="3770100"/>
+          <a:ext cx="557096" cy="287602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354446</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354446</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Shape 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4926446" y="1190852"/>
+          <a:ext cx="1" cy="1367791"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumOff val="-13575"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311146</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106242</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Shape 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4883146" y="1791907"/>
+          <a:ext cx="557097" cy="287602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1:M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>507935</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279509</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Shape 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3555935" y="343696"/>
+          <a:ext cx="1295575" cy="2525055"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumOff val="-13575"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>110921</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498658</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Shape 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3920921" y="2118575"/>
+          <a:ext cx="387738" cy="287603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>1:M</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6734,62 +8617,89 @@
     <row r="13">
       <c r="B13" s="4"/>
       <c r="C13" t="s" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="4"/>
       <c r="C15" t="s" s="4">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="4"/>
       <c r="C17" t="s" s="4">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="4">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s" s="5">
-        <v>96</v>
-      </c>
+      <c r="B18" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="B19" s="4"/>
       <c r="C19" t="s" s="4">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>125</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4"/>
+      <c r="C22" t="s" s="4">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6798,14 +8708,724 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" location="'Use_Case_diagram'!R1C1" tooltip="" display="Use_Case_diagram"/>
-    <hyperlink ref="D12" location="'Data Objects - Movieplex - user'!R2C1" tooltip="" display="Data Objects - Movieplex - user"/>
-    <hyperlink ref="D13" location="'Data Objects - Movieplex - mult'!R2C1" tooltip="" display="Data Objects - Movieplex - mult"/>
-    <hyperlink ref="D14" location="'Data Objects - Movieplex - _mov'!R2C1" tooltip="" display="Data Objects - Movieplex - _mov"/>
-    <hyperlink ref="D15" location="'Data Objects - Movieplex - Movi'!R2C1" tooltip="" display="Data Objects - Movieplex - Movi"/>
-    <hyperlink ref="D17" location="'features - User Microservice'!R2C1" tooltip="" display="features - User Microservice"/>
-    <hyperlink ref="D18" location="'features - Movie Microservice'!R2C1" tooltip="" display="features - Movie Microservice"/>
-    <hyperlink ref="D19" location="'features - Multiplex Microservi'!R2C1" tooltip="" display="features - Multiplex Microservi"/>
+    <hyperlink ref="D12" location="'Data Objects &amp; Communication - '!R2C1" tooltip="" display="Data Objects &amp; Communication - "/>
+    <hyperlink ref="D13" location="'Data Objects &amp; Communication -1'!R2C1" tooltip="" display="Data Objects &amp; Communication -1"/>
+    <hyperlink ref="D14" location="'Data Objects &amp; Communication -2'!R2C1" tooltip="" display="Data Objects &amp; Communication -2"/>
+    <hyperlink ref="D15" location="'Data Objects &amp; Communication -3'!R2C1" tooltip="" display="Data Objects &amp; Communication -3"/>
+    <hyperlink ref="D16" location="'Data Objects &amp; Communication -4'!R2C1" tooltip="" display="Data Objects &amp; Communication -4"/>
+    <hyperlink ref="D17" location="'Data Objects &amp; Communication -5'!R1C1" tooltip="" display="Data Objects &amp; Communication -5"/>
+    <hyperlink ref="D19" location="'features - User Microservice'!R2C1" tooltip="" display="features - User Microservice"/>
+    <hyperlink ref="D20" location="'features - Movie Microservice'!R2C1" tooltip="" display="features - Movie Microservice"/>
+    <hyperlink ref="D21" location="'features - Multiplex Microservi'!R2C1" tooltip="" display="features - Multiplex Microservi"/>
+    <hyperlink ref="D22" location="'features - Screen Microservice-'!R2C1" tooltip="" display="features - Screen Microservice-"/>
   </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.3516" style="32" customWidth="1"/>
+    <col min="2" max="2" width="34" style="32" customWidth="1"/>
+    <col min="3" max="3" width="22.6719" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.3516" style="32" customWidth="1"/>
+    <col min="5" max="5" width="21.1719" style="32" customWidth="1"/>
+    <col min="6" max="9" width="16.3516" style="32" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" ht="16.55" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" ht="16.55" customHeight="1">
+      <c r="A3" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s" s="25">
+        <v>76</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1">
+      <c r="A4" t="s" s="27">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" ht="16.35" customHeight="1">
+      <c r="A5" t="s" s="27">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s" s="28">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" t="s" s="27">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s" s="28">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s" s="28">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s" s="28">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" t="s" s="27">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s" s="28">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s" s="28">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" t="s" s="27">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s" s="28">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s" s="28">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s" s="28">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" ht="16.35" customHeight="1">
+      <c r="A9" t="s" s="27">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s" s="28">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s" s="28">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" ht="16.35" customHeight="1">
+      <c r="A10" t="s" s="27">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="28">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s" s="28">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s" s="28">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" ht="16.35" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="37.0391" style="33" customWidth="1"/>
+    <col min="2" max="2" width="34" style="33" customWidth="1"/>
+    <col min="3" max="3" width="22.6719" style="33" customWidth="1"/>
+    <col min="4" max="4" width="33" style="33" customWidth="1"/>
+    <col min="5" max="5" width="36.8516" style="33" customWidth="1"/>
+    <col min="6" max="9" width="16.3516" style="33" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>137</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" ht="16.55" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" t="s" s="20">
+        <v>139</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" ht="16.55" customHeight="1">
+      <c r="A3" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s" s="25">
+        <v>76</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1">
+      <c r="A4" t="s" s="27">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s" s="28">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s" s="28">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>143</v>
+      </c>
+      <c r="F4" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" ht="16.35" customHeight="1">
+      <c r="A5" t="s" s="27">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s" s="28">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s" s="28">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s" s="28">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" t="s" s="27">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s" s="28">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s" s="28">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s" s="28">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" t="s" s="27">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s" s="28">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s" s="28">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s" s="28">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" t="s" s="27">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>156</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" t="s" s="28">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s" s="28">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" ht="16.35" customHeight="1">
+      <c r="A9" t="s" s="27">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s" s="28">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s" s="28">
+        <v>161</v>
+      </c>
+      <c r="F9" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" ht="16.35" customHeight="1">
+      <c r="A10" t="s" s="27">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s" s="28">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s" s="28">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s" s="28">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="42.1719" style="34" customWidth="1"/>
+    <col min="2" max="2" width="34" style="34" customWidth="1"/>
+    <col min="3" max="3" width="22.6719" style="34" customWidth="1"/>
+    <col min="4" max="4" width="33" style="34" customWidth="1"/>
+    <col min="5" max="5" width="36.8516" style="34" customWidth="1"/>
+    <col min="6" max="9" width="16.3516" style="34" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>166</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" ht="16.55" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" t="s" s="20">
+        <v>168</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" ht="16.55" customHeight="1">
+      <c r="A3" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s" s="25">
+        <v>76</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1">
+      <c r="A4" t="s" s="27">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" ht="16.35" customHeight="1">
+      <c r="A5" t="s" s="27">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" t="s" s="27">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s" s="28">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" t="s" s="27">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s" s="28">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" t="s" s="27">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s" s="28">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s" s="28">
+        <v>164</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" t="s" s="28">
+        <v>179</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" ht="16.35" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" ht="16.35" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6833,7 +9453,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -6922,6 +9542,24 @@
       <c r="A13" s="12"/>
       <c r="B13" t="s" s="13">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="16.35" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="16.35" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="16.35" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s" s="13">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6941,7 +9579,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -6950,75 +9588,61 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.38281" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.7188" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20.4609" style="14" customWidth="1"/>
-    <col min="4" max="256" width="16.3516" style="14" customWidth="1"/>
+    <col min="2" max="2" width="43.3516" style="14" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
     </row>
     <row r="2" ht="16.55" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="16.55" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="16.35" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s" s="16">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="16.35" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="16.35" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="16.35" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s" s="13">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7033,7 +9657,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -7041,39 +9665,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.38281" style="17" customWidth="1"/>
-    <col min="2" max="2" width="42.2578" style="17" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.38281" style="15" customWidth="1"/>
+    <col min="2" max="2" width="43.3828" style="15" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="16.55" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" t="s" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="16.55" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" t="s" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="16.35" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="16.35" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" t="s" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="16.35" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s" s="13">
         <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="16.35" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="16.35" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="16.35" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="16.35" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="16.35" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="16.35" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="16.35" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="16.35" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s" s="13">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -7093,7 +9771,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -7101,99 +9779,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.38281" style="18" customWidth="1"/>
-    <col min="2" max="2" width="43.1719" style="18" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="5.38281" style="16" customWidth="1"/>
+    <col min="2" max="2" width="43.1719" style="16" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="16.55" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" t="s" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="16.55" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" t="s" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="16.35" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" t="s" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="16.35" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" t="s" s="13">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="16.35" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" t="s" s="13">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="16.35" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" t="s" s="13">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="16.35" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" t="s" s="13">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="16.35" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" t="s" s="13">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="16.35" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" t="s" s="13">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="16.35" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" t="s" s="13">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="16.35" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" t="s" s="13">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="16.35" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" t="s" s="13">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="16.35" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" t="s" s="13">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="16.35" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" t="s" s="13">
-        <v>51</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="16.35" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" ht="16.35" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" ht="16.35" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s" s="13">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -7213,262 +9909,52 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I12"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.0391" style="19" customWidth="1"/>
-    <col min="2" max="2" width="34" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.6719" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17" style="19" customWidth="1"/>
-    <col min="5" max="5" width="25.3516" style="19" customWidth="1"/>
-    <col min="6" max="9" width="16.3516" style="19" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="1" width="5.38281" style="17" customWidth="1"/>
+    <col min="2" max="2" width="43.3516" style="17" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
     </row>
     <row r="2" ht="16.55" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" t="s" s="21">
-        <v>55</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" ht="16.55" customHeight="1">
-      <c r="A3" t="s" s="24">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s" s="25">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s" s="26">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="11">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>62</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s" s="16">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="16">
-        <v>66</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" t="s" s="28">
-        <v>67</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="B5" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s" s="16">
-        <v>66</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" t="s" s="28">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s" s="16">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s" s="16">
-        <v>75</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" t="s" s="28">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s" s="16">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s" s="16">
-        <v>75</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" t="s" s="28">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s" s="16">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s" s="16">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" t="s" s="28">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s" s="16">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s" s="16">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s" s="16">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" t="s" s="28">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s" s="30">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s" s="16">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s" s="16">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s" s="16">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" ht="16.35" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" ht="16.35" customHeight="1">
-      <c r="A12" t="s" s="28">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>94</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -7483,7 +9969,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="256" width="10" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
@@ -7491,18 +9999,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.3516" style="32" customWidth="1"/>
-    <col min="2" max="2" width="34" style="32" customWidth="1"/>
-    <col min="3" max="3" width="22.6719" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.3516" style="32" customWidth="1"/>
-    <col min="5" max="5" width="21.1719" style="32" customWidth="1"/>
-    <col min="6" max="9" width="16.3516" style="32" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="32" customWidth="1"/>
+    <col min="1" max="1" width="37.0391" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34" style="18" customWidth="1"/>
+    <col min="3" max="3" width="22.6719" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1"/>
+    <col min="5" max="5" width="25.3516" style="18" customWidth="1"/>
+    <col min="6" max="9" width="16.3516" style="18" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7514,197 +10022,197 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" ht="16.55" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" t="s" s="21">
-        <v>97</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="19"/>
+      <c r="B2" t="s" s="20">
+        <v>70</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" ht="16.55" customHeight="1">
-      <c r="A3" t="s" s="24">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s" s="25">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s" s="26">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s" s="25">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s" s="25">
+        <v>76</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>98</v>
+      <c r="A4" t="s" s="27">
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="13">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s" s="16">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s" s="16">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C4" t="s" s="28">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s" s="28">
+        <v>81</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
     <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" t="s" s="28">
-        <v>101</v>
+      <c r="A5" t="s" s="27">
+        <v>82</v>
       </c>
       <c r="B5" t="s" s="13">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s" s="16">
-        <v>104</v>
-      </c>
-      <c r="F5" t="s" s="16">
         <v>83</v>
+      </c>
+      <c r="C5" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s" s="28">
+        <v>81</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
     </row>
     <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" t="s" s="28">
-        <v>105</v>
+      <c r="A6" t="s" s="27">
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s" s="16">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s" s="16">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s" s="16">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="C6" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s" s="28">
+        <v>90</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
     </row>
     <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" t="s" s="28">
-        <v>109</v>
+      <c r="A7" t="s" s="27">
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>103</v>
-      </c>
-      <c r="D7" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s" s="16">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s" s="16">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="C7" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s" s="28">
+        <v>90</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
     <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" t="s" s="28">
-        <v>112</v>
+      <c r="A8" t="s" s="27">
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s" s="16">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>114</v>
-      </c>
-      <c r="E8" t="s" s="16">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s" s="16">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="C8" t="s" s="28">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s" s="28">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="28">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s" s="28">
+        <v>98</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
     </row>
     <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" t="s" s="28">
-        <v>116</v>
+      <c r="A9" t="s" s="27">
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s" s="16">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s" s="16">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s" s="16">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="C9" t="s" s="28">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s" s="28">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s" s="28">
+        <v>98</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
     </row>
     <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" t="s" s="28">
-        <v>120</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s" s="16">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s" s="16">
-        <v>122</v>
-      </c>
-      <c r="E10" t="s" s="16">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s" s="16">
-        <v>66</v>
+      <c r="A10" t="s" s="27">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s" s="30">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s" s="28">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s" s="28">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s" s="28">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s" s="28">
+        <v>98</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -7721,258 +10229,16 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="37.0391" style="33" customWidth="1"/>
-    <col min="2" max="2" width="34" style="33" customWidth="1"/>
-    <col min="3" max="3" width="22.6719" style="33" customWidth="1"/>
-    <col min="4" max="4" width="33" style="33" customWidth="1"/>
-    <col min="5" max="5" width="36.8516" style="33" customWidth="1"/>
-    <col min="6" max="9" width="16.3516" style="33" customWidth="1"/>
-    <col min="10" max="256" width="16.3516" style="33" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" ht="16.55" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" t="s" s="21">
-        <v>126</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" ht="16.55" customHeight="1">
-      <c r="A3" t="s" s="24">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s" s="25">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s" s="26">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s" s="13">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s" s="16">
-        <v>130</v>
-      </c>
-      <c r="F4" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" t="s" s="28">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s" s="16">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s" s="16">
-        <v>134</v>
-      </c>
-      <c r="F5" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" t="s" s="28">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>133</v>
-      </c>
-      <c r="D6" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s" s="16">
-        <v>137</v>
-      </c>
-      <c r="F6" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" t="s" s="28">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>133</v>
-      </c>
-      <c r="D7" t="s" s="16">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s" s="16">
-        <v>140</v>
-      </c>
-      <c r="F7" t="s" s="16">
-        <v>83</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" ht="16.35" customHeight="1">
-      <c r="A8" t="s" s="28">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>142</v>
-      </c>
-      <c r="C8" t="s" s="16">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="E8" t="s" s="16">
-        <v>144</v>
-      </c>
-      <c r="F8" t="s" s="16">
-        <v>66</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" ht="16.35" customHeight="1">
-      <c r="A9" t="s" s="28">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>146</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" t="s" s="16">
-        <v>122</v>
-      </c>
-      <c r="E9" t="s" s="16">
-        <v>147</v>
-      </c>
-      <c r="F9" t="s" s="16">
-        <v>66</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" ht="16.35" customHeight="1">
-      <c r="A10" t="s" s="28">
-        <v>148</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s" s="16">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s" s="16">
-        <v>122</v>
-      </c>
-      <c r="E10" t="s" s="16">
-        <v>151</v>
-      </c>
-      <c r="F10" t="s" s="16">
-        <v>66</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" ht="16.35" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+    <row r="12" ht="16.35" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/movie-plex-use_case_xlsx.xlsx
+++ b/movie-plex-use_case_xlsx.xlsx
@@ -17,12 +17,13 @@
     <sheet name="features - Movie Microservice" sheetId="10" r:id="rId13"/>
     <sheet name="features - Multiplex Microservi" sheetId="11" r:id="rId14"/>
     <sheet name="features - Screen Microservice-" sheetId="12" r:id="rId15"/>
+    <sheet name="features - Drawings" sheetId="13" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -562,6 +563,9 @@
   </si>
   <si>
     <t>Mplex-microservice</t>
+  </si>
+  <si>
+    <t>features - Drawings</t>
   </si>
 </sst>
 </file>
@@ -571,7 +575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -617,6 +621,17 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="14"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -633,7 +648,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="17"/>
+      <color indexed="18"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -664,13 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -685,13 +700,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="15"/>
@@ -700,7 +730,37 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
       </left>
       <right style="thin">
         <color indexed="15"/>
@@ -709,7 +769,44 @@
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,28 +815,13 @@
         <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
         <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,80 +830,13 @@
         <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
         <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,91 +865,91 @@
     <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="14" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -958,6 +973,7 @@
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff0075b9"/>
+      <rgbColor rgb="ffed220b"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -6995,6 +7011,234 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242821</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Shape 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397675" y="-147531"/>
+          <a:ext cx="3989147" cy="344796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Project running on :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+              <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+            </a:rPr>
+            <a:t>https://movieplex.github.io/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89962</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>155232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269108</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>4727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Shape 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2375962" y="10886732"/>
+          <a:ext cx="3989147" cy="344796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Project running on :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+              <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+            </a:rPr>
+            <a:t>https://movieplex.github.io/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7015,7 +7259,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Shape 68"/>
+        <xdr:cNvPr id="70" name="Shape 70"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7103,7 +7347,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Shape 69"/>
+        <xdr:cNvPr id="71" name="Shape 71"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7152,7 +7396,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Shape 70"/>
+        <xdr:cNvPr id="72" name="Shape 72"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7240,7 +7484,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Shape 71"/>
+        <xdr:cNvPr id="73" name="Shape 73"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7289,7 +7533,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Shape 72"/>
+        <xdr:cNvPr id="74" name="Shape 74"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7377,7 +7621,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Shape 73"/>
+        <xdr:cNvPr id="75" name="Shape 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7426,7 +7670,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Shape 74"/>
+        <xdr:cNvPr id="76" name="Shape 76"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7493,6 +7737,239 @@
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>1:M</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>277974</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457120</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>45765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Shape 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2563974" y="7955971"/>
+          <a:ext cx="3989147" cy="344795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Project running on :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+              <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+            </a:rPr>
+            <a:t>https://movieplex.github.io/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>429435</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608581</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Shape 79"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1953435" y="-53069"/>
+          <a:ext cx="3989147" cy="344796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Project running on :  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:hueOff val="-82419"/>
+                  <a:satOff val="-9513"/>
+                  <a:lumOff val="-16343"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+              <a:hlinkClick r:id="rId1" invalidUrl="" action="" tgtFrame="" tooltip="" history="1" highlightClick="0" endSnd="0"/>
+            </a:rPr>
+            <a:t>https://movieplex.github.io/</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8702,6 +9179,15 @@
         <v>167</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" s="4"/>
+      <c r="C23" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -8718,6 +9204,7 @@
     <hyperlink ref="D20" location="'features - Movie Microservice'!R2C1" tooltip="" display="features - Movie Microservice"/>
     <hyperlink ref="D21" location="'features - Multiplex Microservi'!R2C1" tooltip="" display="features - Multiplex Microservi"/>
     <hyperlink ref="D22" location="'features - Screen Microservice-'!R2C1" tooltip="" display="features - Screen Microservice-"/>
+    <hyperlink ref="D23" location="'features - Drawings'!R1C1" tooltip="" display="features - Drawings"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -9429,8 +9916,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="256" width="10" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -9440,7 +9952,7 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
